--- a/Models/resultados_completos_modelos.xlsx
+++ b/Models/resultados_completos_modelos.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,13 +554,13 @@
         <v>267.4576451347897</v>
       </c>
       <c r="F4" t="n">
-        <v>1119.003308247203</v>
+        <v>1034.50671862882</v>
       </c>
       <c r="G4" t="n">
         <v>2038.134192492151</v>
       </c>
       <c r="H4" t="n">
-        <v>859.4429828639629</v>
+        <v>842.5436649402864</v>
       </c>
     </row>
     <row r="5">
@@ -580,13 +580,13 @@
         <v>408.3346081927614</v>
       </c>
       <c r="F5" t="n">
-        <v>2373.139333257076</v>
+        <v>2101.281810432855</v>
       </c>
       <c r="G5" t="n">
         <v>3372.187719668449</v>
       </c>
       <c r="H5" t="n">
-        <v>1558.491917811841</v>
+        <v>1504.120413246997</v>
       </c>
     </row>
     <row r="6">
@@ -613,10 +613,10 @@
         <v>1493.892922437311</v>
       </c>
       <c r="G6" t="n">
-        <v>847.1722509352461</v>
+        <v>847.1722509352464</v>
       </c>
       <c r="H6" t="n">
-        <v>627.3200039463717</v>
+        <v>627.3200039463716</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         <v>315.5593901853582</v>
       </c>
       <c r="F7" t="n">
-        <v>4088.528329653883</v>
+        <v>4088.528329653889</v>
       </c>
       <c r="G7" t="n">
-        <v>1474.272452439906</v>
+        <v>1474.272452439905</v>
       </c>
       <c r="H7" t="n">
-        <v>1461.742223342471</v>
+        <v>1461.742223342472</v>
       </c>
     </row>
     <row r="8">
@@ -666,13 +666,13 @@
         <v>193.1322863745972</v>
       </c>
       <c r="F8" t="n">
-        <v>122626046884678</v>
+        <v>122626047082667.7</v>
       </c>
       <c r="G8" t="n">
-        <v>832.188652991528</v>
+        <v>832.1886529915279</v>
       </c>
       <c r="H8" t="n">
-        <v>29218075296995.18</v>
+        <v>29218075336593.1</v>
       </c>
     </row>
     <row r="9">
@@ -692,13 +692,13 @@
         <v>325.341998415387</v>
       </c>
       <c r="F9" t="n">
-        <v>634139228162251.1</v>
+        <v>634139228204476.1</v>
       </c>
       <c r="G9" t="n">
         <v>1535.938982187649</v>
       </c>
       <c r="H9" t="n">
-        <v>158800831603671.3</v>
+        <v>158800831612116.3</v>
       </c>
     </row>
     <row r="10">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>181.948841098246</v>
+        <v>178.1188330856259</v>
       </c>
       <c r="D10" t="n">
-        <v>196.7655256652501</v>
+        <v>194.0134567572984</v>
       </c>
       <c r="E10" t="n">
-        <v>205.092068729183</v>
+        <v>205.1620119837716</v>
       </c>
       <c r="F10" t="n">
-        <v>633.5607528255927</v>
+        <v>625.1161833619011</v>
       </c>
       <c r="G10" t="n">
-        <v>903.1851476667349</v>
+        <v>888.4496613298472</v>
       </c>
       <c r="H10" t="n">
-        <v>424.1104671970014</v>
+        <v>418.1720293036889</v>
       </c>
     </row>
     <row r="11">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>340.6636049145947</v>
+        <v>333.5786965018971</v>
       </c>
       <c r="D11" t="n">
-        <v>336.5179579913751</v>
+        <v>327.7872303617493</v>
       </c>
       <c r="E11" t="n">
-        <v>335.4942790608508</v>
+        <v>331.333617432047</v>
       </c>
       <c r="F11" t="n">
-        <v>1301.280327164541</v>
+        <v>1259.994876921328</v>
       </c>
       <c r="G11" t="n">
-        <v>1565.107298679924</v>
+        <v>1545.878695189412</v>
       </c>
       <c r="H11" t="n">
-        <v>775.8126935622571</v>
+        <v>759.7146232812867</v>
       </c>
     </row>
     <row r="12">
@@ -778,7 +778,7 @@
         <v>255.1048796122679</v>
       </c>
       <c r="F12" t="n">
-        <v>732.0877577561054</v>
+        <v>732.0877577561055</v>
       </c>
       <c r="G12" t="n">
         <v>1076.151695489799</v>
@@ -804,13 +804,13 @@
         <v>399.8347447958762</v>
       </c>
       <c r="F13" t="n">
-        <v>1362.083159053126</v>
+        <v>1362.083159053125</v>
       </c>
       <c r="G13" t="n">
-        <v>1846.988692003134</v>
+        <v>1846.988692003133</v>
       </c>
       <c r="H13" t="n">
-        <v>877.2534199766211</v>
+        <v>877.2534199766209</v>
       </c>
     </row>
     <row r="14">
@@ -834,13 +834,13 @@
         <v>234.9114883322171</v>
       </c>
       <c r="F14" t="n">
-        <v>385647967777442.8</v>
+        <v>385647967777443.9</v>
       </c>
       <c r="G14" t="n">
         <v>1279.075781754987</v>
       </c>
       <c r="H14" t="n">
-        <v>83946721931640.47</v>
+        <v>83946721931640.7</v>
       </c>
     </row>
     <row r="15">
@@ -860,13 +860,13 @@
         <v>449.1375757651053</v>
       </c>
       <c r="F15" t="n">
-        <v>1577417883380144</v>
+        <v>1577417883380150</v>
       </c>
       <c r="G15" t="n">
         <v>2314.685798009097</v>
       </c>
       <c r="H15" t="n">
-        <v>356576521114600.9</v>
+        <v>356576521114602.1</v>
       </c>
     </row>
     <row r="16">
@@ -890,13 +890,13 @@
         <v>202.853370276724</v>
       </c>
       <c r="F16" t="n">
-        <v>2671.17306921728</v>
+        <v>2671.173069217274</v>
       </c>
       <c r="G16" t="n">
         <v>1197.081925967786</v>
       </c>
       <c r="H16" t="n">
-        <v>983.9613286144919</v>
+        <v>983.9613286144904</v>
       </c>
     </row>
     <row r="17">
@@ -916,13 +916,13 @@
         <v>349.6236181150357</v>
       </c>
       <c r="F17" t="n">
-        <v>4768.465147373283</v>
+        <v>4768.465147373186</v>
       </c>
       <c r="G17" t="n">
-        <v>2425.574029837417</v>
+        <v>2425.574029837418</v>
       </c>
       <c r="H17" t="n">
-        <v>1848.922684454636</v>
+        <v>1848.922684454617</v>
       </c>
     </row>
     <row r="18">
@@ -946,13 +946,13 @@
         <v>185.6563820970976</v>
       </c>
       <c r="F18" t="n">
-        <v>1785.759028864039</v>
+        <v>1785.75902886404</v>
       </c>
       <c r="G18" t="n">
-        <v>877.9690451079415</v>
+        <v>877.9690451079412</v>
       </c>
       <c r="H18" t="n">
-        <v>727.4014585513413</v>
+        <v>727.4014585513414</v>
       </c>
     </row>
     <row r="19">
@@ -972,13 +972,13 @@
         <v>323.8620835128603</v>
       </c>
       <c r="F19" t="n">
-        <v>4117.33031822143</v>
+        <v>4117.330318221436</v>
       </c>
       <c r="G19" t="n">
         <v>1581.596479717585</v>
       </c>
       <c r="H19" t="n">
-        <v>1541.826950658035</v>
+        <v>1541.826950658036</v>
       </c>
     </row>
     <row r="20">
@@ -1008,7 +1008,7 @@
         <v>3725.737545281719</v>
       </c>
       <c r="H20" t="n">
-        <v>1647.652293756114</v>
+        <v>1647.652293756115</v>
       </c>
     </row>
     <row r="21">
@@ -1058,13 +1058,13 @@
         <v>148.2095131576679</v>
       </c>
       <c r="F22" t="n">
-        <v>425.9827465082739</v>
+        <v>425.9827470707804</v>
       </c>
       <c r="G22" t="n">
-        <v>574.1663407358407</v>
+        <v>574.1663397875039</v>
       </c>
       <c r="H22" t="n">
-        <v>284.0396302570018</v>
+        <v>284.0396301798358</v>
       </c>
     </row>
     <row r="23">
@@ -1084,13 +1084,13 @@
         <v>277.6733307692634</v>
       </c>
       <c r="F23" t="n">
-        <v>995.058639653305</v>
+        <v>995.0586396403189</v>
       </c>
       <c r="G23" t="n">
-        <v>1258.336894605999</v>
+        <v>1258.336894332226</v>
       </c>
       <c r="H23" t="n">
-        <v>616.358061561803</v>
+        <v>616.3580615044511</v>
       </c>
     </row>
     <row r="24">
@@ -1114,13 +1114,13 @@
         <v>187.0922812412929</v>
       </c>
       <c r="F24" t="n">
-        <v>351599294671819.8</v>
+        <v>351599294671819.2</v>
       </c>
       <c r="G24" t="n">
-        <v>817.3405583276804</v>
+        <v>817.3405583276808</v>
       </c>
       <c r="H24" t="n">
-        <v>75574678164689.38</v>
+        <v>75574678164689.25</v>
       </c>
     </row>
     <row r="25">
@@ -1140,19 +1140,19 @@
         <v>316.9294210558254</v>
       </c>
       <c r="F25" t="n">
-        <v>1573832078110804</v>
+        <v>1573832078110800</v>
       </c>
       <c r="G25" t="n">
-        <v>1484.672494148267</v>
+        <v>1484.672494148266</v>
       </c>
       <c r="H25" t="n">
-        <v>351234663065514.4</v>
+        <v>351234663065513.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>PARegressor</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1161,22 +1161,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1667.094932741944</v>
+        <v>2413.462316855882</v>
       </c>
       <c r="D26" t="n">
-        <v>1969.207155886771</v>
+        <v>2844.072418681532</v>
       </c>
       <c r="E26" t="n">
-        <v>1912.891409858843</v>
+        <v>2822.184111083388</v>
       </c>
       <c r="F26" t="n">
-        <v>6514.671239938411</v>
+        <v>9176.617726420582</v>
       </c>
       <c r="G26" t="n">
-        <v>11445.73002407671</v>
+        <v>18670.36452310333</v>
       </c>
       <c r="H26" t="n">
-        <v>4701.918952500535</v>
+        <v>7185.340219228943</v>
       </c>
     </row>
     <row r="27">
@@ -1187,28 +1187,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2184.974197005831</v>
+        <v>3354.98092669652</v>
       </c>
       <c r="D27" t="n">
-        <v>2444.623089728648</v>
+        <v>3822.746363706656</v>
       </c>
       <c r="E27" t="n">
-        <v>2336.362741211973</v>
+        <v>3775.526867250039</v>
       </c>
       <c r="F27" t="n">
-        <v>9083.08551639538</v>
+        <v>13491.68039952828</v>
       </c>
       <c r="G27" t="n">
-        <v>12320.9253792034</v>
+        <v>22060.41800714909</v>
       </c>
       <c r="H27" t="n">
-        <v>5673.994184709046</v>
+        <v>9301.070512866116</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PARegressor</t>
+          <t>KNNRegressor</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2413.462316855882</v>
+        <v>272.8850363454677</v>
       </c>
       <c r="D28" t="n">
-        <v>2844.072418681532</v>
+        <v>260.884139118817</v>
       </c>
       <c r="E28" t="n">
-        <v>2822.184111083388</v>
+        <v>312.8927863103256</v>
       </c>
       <c r="F28" t="n">
-        <v>9139.72740581457</v>
+        <v>984.188372629665</v>
       </c>
       <c r="G28" t="n">
-        <v>18685.23097836299</v>
+        <v>1338.240806455429</v>
       </c>
       <c r="H28" t="n">
-        <v>7180.935446159672</v>
+        <v>633.8182281719407</v>
       </c>
     </row>
     <row r="29">
@@ -1243,28 +1243,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3354.98092669652</v>
+        <v>654.8153387693604</v>
       </c>
       <c r="D29" t="n">
-        <v>3822.746363706656</v>
+        <v>534.7237763975991</v>
       </c>
       <c r="E29" t="n">
-        <v>3775.526867250039</v>
+        <v>743.4005001118798</v>
       </c>
       <c r="F29" t="n">
-        <v>13390.80404619875</v>
+        <v>2753.204928275901</v>
       </c>
       <c r="G29" t="n">
-        <v>22085.71643030718</v>
+        <v>3165.676623137063</v>
       </c>
       <c r="H29" t="n">
-        <v>9285.954926831828</v>
+        <v>1570.364233338361</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Perceptron</t>
+          <t>SKL2RiverRegressor</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1273,22 +1273,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1434.400982292158</v>
+        <v>205.04463606619</v>
       </c>
       <c r="D30" t="n">
-        <v>1668.750499714938</v>
+        <v>232.0782301333618</v>
       </c>
       <c r="E30" t="n">
-        <v>1620.006522318408</v>
+        <v>262.9866925660718</v>
       </c>
       <c r="F30" t="n">
-        <v>5452.20654159166</v>
+        <v>760.8299964325473</v>
       </c>
       <c r="G30" t="n">
-        <v>10056.75443945341</v>
+        <v>1096.741531449101</v>
       </c>
       <c r="H30" t="n">
-        <v>4046.423797074115</v>
+        <v>511.5362173294544</v>
       </c>
     </row>
     <row r="31">
@@ -1299,189 +1299,21 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2013.694045671912</v>
+        <v>362.0953492253847</v>
       </c>
       <c r="D31" t="n">
-        <v>2238.663815990253</v>
+        <v>375.3091358984173</v>
       </c>
       <c r="E31" t="n">
-        <v>2135.763048844048</v>
+        <v>386.8513347332692</v>
       </c>
       <c r="F31" t="n">
-        <v>8405.179571420345</v>
+        <v>1435.154590949697</v>
       </c>
       <c r="G31" t="n">
-        <v>11283.81769767996</v>
+        <v>1831.280627959744</v>
       </c>
       <c r="H31" t="n">
-        <v>5215.423635921303</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>SoftmaxRegression</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>1852.126257021408</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2540.38486905099</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1560.846942521229</v>
-      </c>
-      <c r="F32" t="n">
-        <v>6375.978343931745</v>
-      </c>
-      <c r="G32" t="n">
-        <v>13807.98771443896</v>
-      </c>
-      <c r="H32" t="n">
-        <v>5227.464825392866</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>2354.396203395992</v>
-      </c>
-      <c r="D33" t="n">
-        <v>3109.831407380803</v>
-      </c>
-      <c r="E33" t="n">
-        <v>2026.038035373482</v>
-      </c>
-      <c r="F33" t="n">
-        <v>7913.938607393744</v>
-      </c>
-      <c r="G33" t="n">
-        <v>16004.68804742582</v>
-      </c>
-      <c r="H33" t="n">
-        <v>6281.778460193968</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>KNNRegressor</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>263.3893858576899</v>
-      </c>
-      <c r="D34" t="n">
-        <v>293.0860639451182</v>
-      </c>
-      <c r="E34" t="n">
-        <v>304.9430473575244</v>
-      </c>
-      <c r="F34" t="n">
-        <v>969.4115836950801</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1250.027684892413</v>
-      </c>
-      <c r="H34" t="n">
-        <v>616.1715531495653</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>634.1884118995348</v>
-      </c>
-      <c r="D35" t="n">
-        <v>628.6863442886221</v>
-      </c>
-      <c r="E35" t="n">
-        <v>699.5071419550468</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2767.484806756966</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2962.146384847042</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1538.402617949442</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>SKL2RiverRegressor</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>205.04463606619</v>
-      </c>
-      <c r="D36" t="n">
-        <v>232.0782301333618</v>
-      </c>
-      <c r="E36" t="n">
-        <v>262.9866925660718</v>
-      </c>
-      <c r="F36" t="n">
-        <v>760.8299964325474</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1096.741531449102</v>
-      </c>
-      <c r="H36" t="n">
-        <v>511.5362173294546</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>362.0953492253847</v>
-      </c>
-      <c r="D37" t="n">
-        <v>375.3091358984173</v>
-      </c>
-      <c r="E37" t="n">
-        <v>386.8513347332692</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1435.154590949697</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1831.280627959744</v>
-      </c>
-      <c r="H37" t="n">
         <v>878.1382077533024</v>
       </c>
     </row>
@@ -1496,7 +1328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1558,22 +1390,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3923</v>
+        <v>0.6408</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3908</v>
+        <v>0.3874</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4034</v>
+        <v>0.3996</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4351</v>
+        <v>0.466</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3549</v>
+        <v>0.3817</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3953</v>
+        <v>0.4551</v>
       </c>
     </row>
     <row r="3">
@@ -1584,22 +1416,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.1177</v>
+        <v>3.9093</v>
       </c>
       <c r="D3" t="n">
-        <v>3.037</v>
+        <v>4.081</v>
       </c>
       <c r="E3" t="n">
-        <v>3.095</v>
+        <v>4.1427</v>
       </c>
       <c r="F3" t="n">
-        <v>3.294</v>
+        <v>4.4687</v>
       </c>
       <c r="G3" t="n">
-        <v>3.0373</v>
+        <v>4.0359</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1162</v>
+        <v>4.12752</v>
       </c>
     </row>
     <row r="4">
@@ -1614,22 +1446,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1008</v>
+        <v>0.1574</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1013</v>
+        <v>0.1617</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1131</v>
+        <v>0.1764</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1103</v>
+        <v>0.1658</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0983</v>
+        <v>0.1491</v>
       </c>
       <c r="H4" t="n">
-        <v>0.10476</v>
+        <v>0.16208</v>
       </c>
     </row>
     <row r="5">
@@ -1640,22 +1472,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.5203</v>
+        <v>4.2822</v>
       </c>
       <c r="D5" t="n">
-        <v>3.4089</v>
+        <v>4.1893</v>
       </c>
       <c r="E5" t="n">
-        <v>3.7844</v>
+        <v>4.5926</v>
       </c>
       <c r="F5" t="n">
-        <v>3.0102</v>
+        <v>3.4199</v>
       </c>
       <c r="G5" t="n">
-        <v>3.5596</v>
+        <v>4.2729</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45668</v>
+        <v>4.151380000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1670,22 +1502,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0458</v>
+        <v>0.0547</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0466</v>
+        <v>0.0541</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0521</v>
+        <v>0.0619</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0438</v>
+        <v>0.0534</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0513</v>
+        <v>0.0629</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04792</v>
+        <v>0.05740000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1696,22 +1528,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6739000000000001</v>
+        <v>0.822</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6287</v>
+        <v>0.7602</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7066</v>
+        <v>0.8396</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6575</v>
+        <v>0.8508</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7085</v>
+        <v>0.8824</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6750399999999999</v>
+        <v>0.8309999999999998</v>
       </c>
     </row>
     <row r="8">
@@ -1726,22 +1558,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.08210000000000001</v>
+        <v>0.0977</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0823</v>
+        <v>0.1024</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0822</v>
+        <v>0.099</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0827</v>
+        <v>0.09810000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08210000000000001</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08227999999999999</v>
+        <v>0.09830000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1752,22 +1584,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2393</v>
+        <v>0.2763</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2397</v>
+        <v>0.2877</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2383</v>
+        <v>0.2767</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2398</v>
+        <v>0.2787</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2366</v>
+        <v>0.2714</v>
       </c>
       <c r="H9" t="n">
-        <v>0.23874</v>
+        <v>0.27816</v>
       </c>
     </row>
     <row r="10">
@@ -1782,22 +1614,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0038</v>
+        <v>0.0297</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0038</v>
+        <v>0.0297</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0038</v>
+        <v>0.0296</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0038</v>
+        <v>0.03</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0038</v>
+        <v>0.0295</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0038</v>
+        <v>0.0297</v>
       </c>
     </row>
     <row r="11">
@@ -1808,22 +1640,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0387</v>
+        <v>0.1822</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0388</v>
+        <v>0.182</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0388</v>
+        <v>0.1818</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0392</v>
+        <v>0.1829</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0388</v>
+        <v>0.1807</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03886</v>
+        <v>0.18192</v>
       </c>
     </row>
     <row r="12">
@@ -1838,22 +1670,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.083</v>
+        <v>0.1391</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08409999999999999</v>
+        <v>0.0892</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0827</v>
+        <v>0.0877</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08309999999999999</v>
+        <v>0.0883</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08450000000000001</v>
+        <v>0.0893</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08348</v>
+        <v>0.09872</v>
       </c>
     </row>
     <row r="13">
@@ -1864,22 +1696,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13.0987</v>
+        <v>15.4054</v>
       </c>
       <c r="D13" t="n">
-        <v>13.2964</v>
+        <v>13.9818</v>
       </c>
       <c r="E13" t="n">
-        <v>13.9423</v>
+        <v>14.6607</v>
       </c>
       <c r="F13" t="n">
-        <v>12.476</v>
+        <v>13.0765</v>
       </c>
       <c r="G13" t="n">
-        <v>13.2574</v>
+        <v>13.9415</v>
       </c>
       <c r="H13" t="n">
-        <v>13.21416</v>
+        <v>14.21318</v>
       </c>
     </row>
     <row r="14">
@@ -1894,22 +1726,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0039</v>
+        <v>0.0044</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0039</v>
+        <v>0.0043</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0039</v>
+        <v>0.0043</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0039</v>
+        <v>0.0043</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0039</v>
+        <v>0.0042</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0039</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="15">
@@ -1920,22 +1752,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0424</v>
+        <v>0.0439</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0427</v>
+        <v>0.0436</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0424</v>
+        <v>0.043</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0421</v>
+        <v>0.0429</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0428</v>
+        <v>0.0436</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04248</v>
+        <v>0.0434</v>
       </c>
     </row>
     <row r="16">
@@ -1950,22 +1782,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0113</v>
+        <v>0.0123</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0109</v>
+        <v>0.0117</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0121</v>
+        <v>0.013</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0118</v>
+        <v>0.0125</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0098</v>
+        <v>0.0105</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01118</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="17">
@@ -1976,22 +1808,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.5069</v>
+        <v>0.5399</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4909</v>
+        <v>0.5006</v>
       </c>
       <c r="E17" t="n">
-        <v>0.389</v>
+        <v>0.4099</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4909</v>
+        <v>0.538</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6078</v>
+        <v>0.6219</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4971</v>
+        <v>0.52206</v>
       </c>
     </row>
     <row r="18">
@@ -2006,22 +1838,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0086</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0083</v>
+        <v>0.0086</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0092</v>
+        <v>0.0095</v>
       </c>
       <c r="F18" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0086</v>
       </c>
       <c r="G18" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.0094</v>
       </c>
       <c r="H18" t="n">
-        <v>0.008659999999999999</v>
+        <v>0.00894</v>
       </c>
     </row>
     <row r="19">
@@ -2032,22 +1864,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.3701</v>
+        <v>0.3584</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3432</v>
+        <v>0.3671</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3591</v>
+        <v>0.3651</v>
       </c>
       <c r="F19" t="n">
-        <v>0.313</v>
+        <v>0.3174</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3385</v>
+        <v>0.3401</v>
       </c>
       <c r="H19" t="n">
-        <v>0.34478</v>
+        <v>0.34962</v>
       </c>
     </row>
     <row r="20">
@@ -2062,22 +1894,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.006</v>
+        <v>0.0063</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0063</v>
+        <v>0.0065</v>
       </c>
       <c r="E20" t="n">
-        <v>0.006</v>
+        <v>0.0064</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0062</v>
+        <v>0.0065</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0061</v>
+        <v>0.0064</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00612</v>
+        <v>0.006419999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -2088,22 +1920,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.6284</v>
+        <v>0.6949</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6939</v>
+        <v>0.7657</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7171999999999999</v>
+        <v>0.7672</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6257</v>
+        <v>0.6672</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6311</v>
+        <v>0.6758</v>
       </c>
       <c r="H21" t="n">
-        <v>0.65926</v>
+        <v>0.7141599999999999</v>
       </c>
     </row>
     <row r="22">
@@ -2118,22 +1950,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0063</v>
+        <v>0.007</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0064</v>
+        <v>0.007</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0063</v>
+        <v>0.0069</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0062</v>
+        <v>0.007</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0063</v>
+        <v>0.007</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0063</v>
+        <v>0.00698</v>
       </c>
     </row>
     <row r="23">
@@ -2144,22 +1976,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.5164</v>
+        <v>0.5377999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.522</v>
+        <v>0.5383</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5142</v>
+        <v>0.5416</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5145</v>
+        <v>0.5392</v>
       </c>
       <c r="G23" t="n">
-        <v>0.52</v>
+        <v>0.5377</v>
       </c>
       <c r="H23" t="n">
-        <v>0.51742</v>
+        <v>0.53892</v>
       </c>
     </row>
     <row r="24">
@@ -2174,22 +2006,22 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.0038</v>
       </c>
-      <c r="D24" t="n">
+      <c r="F24" t="n">
         <v>0.0038</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.0037</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.0037</v>
       </c>
       <c r="G24" t="n">
         <v>0.0038</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00376</v>
+        <v>0.00384</v>
       </c>
     </row>
     <row r="25">
@@ -2200,28 +2032,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0285</v>
+        <v>0.0291</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0287</v>
+        <v>0.0291</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0282</v>
+        <v>0.0288</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0283</v>
+        <v>0.0288</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0284</v>
+        <v>0.0289</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02842</v>
+        <v>0.02894</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>PARegressor</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2230,22 +2062,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.0073</v>
+        <v>0.0055</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0073</v>
+        <v>0.0055</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0072</v>
+        <v>0.0055</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0073</v>
+        <v>0.0055</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0072</v>
+        <v>0.0055</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00726</v>
+        <v>0.0055</v>
       </c>
     </row>
     <row r="27">
@@ -2256,28 +2088,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0297</v>
+        <v>0.0249</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0302</v>
+        <v>0.0248</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0297</v>
+        <v>0.025</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0299</v>
+        <v>0.025</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0293</v>
+        <v>0.0248</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02976</v>
+        <v>0.0249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PARegressor</t>
+          <t>KNNRegressor</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2286,22 +2118,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.0053</v>
+        <v>1.7045</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0053</v>
+        <v>1.6835</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0053</v>
+        <v>1.6721</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0053</v>
+        <v>2.065</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0053</v>
+        <v>1.9739</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0053</v>
+        <v>1.8198</v>
       </c>
     </row>
     <row r="29">
@@ -2312,28 +2144,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0275</v>
+        <v>2.5</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0262</v>
+        <v>2.489</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0266</v>
+        <v>2.4513</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0266</v>
+        <v>3.0556</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0272</v>
+        <v>2.9198</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02682</v>
+        <v>2.68314</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Perceptron</t>
+          <t>SKL2RiverRegressor</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2342,22 +2174,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.0071</v>
+        <v>0.1261</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0073</v>
+        <v>0.1255</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0073</v>
+        <v>0.1251</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0072</v>
+        <v>0.1259</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0071</v>
+        <v>0.1256</v>
       </c>
       <c r="H30" t="n">
-        <v>0.007200000000000001</v>
+        <v>0.12564</v>
       </c>
     </row>
     <row r="31">
@@ -2368,190 +2200,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.029</v>
+        <v>0.2701</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0292</v>
+        <v>0.27</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0298</v>
+        <v>0.2694</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0289</v>
+        <v>0.2691</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0293</v>
+        <v>0.2696</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02924</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>SoftmaxRegression</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Inferência (ms)</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>27.9527</v>
-      </c>
-      <c r="D32" t="n">
-        <v>28.867</v>
-      </c>
-      <c r="E32" t="n">
-        <v>27.9777</v>
-      </c>
-      <c r="F32" t="n">
-        <v>28.8737</v>
-      </c>
-      <c r="G32" t="n">
-        <v>27.7592</v>
-      </c>
-      <c r="H32" t="n">
-        <v>28.28606</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Aprendizagem (ms)</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>120.7583</v>
-      </c>
-      <c r="D33" t="n">
-        <v>123.4647</v>
-      </c>
-      <c r="E33" t="n">
-        <v>119.5562</v>
-      </c>
-      <c r="F33" t="n">
-        <v>123.0698</v>
-      </c>
-      <c r="G33" t="n">
-        <v>118.5651</v>
-      </c>
-      <c r="H33" t="n">
-        <v>121.08282</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>KNNRegressor</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Inferência (ms)</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1.5907</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1.5677</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1.5664</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1.5612</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.5655</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1.5703</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Aprendizagem (ms)</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>2.3475</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2.3392</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2.278</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2.3198</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2.2323</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2.303360000000001</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>SKL2RiverRegressor</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Inferência (ms)</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0.1092</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.1083</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.1086</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.109</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.1082</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.10866</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Aprendizagem (ms)</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0.2419</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.2384</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.2385</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.2409</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.23994</v>
+        <v>0.26964</v>
       </c>
     </row>
   </sheetData>
@@ -2565,7 +2229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2666,13 +2330,13 @@
         <v>9701.98</v>
       </c>
       <c r="F3" t="n">
-        <v>4589.84</v>
+        <v>4282.62</v>
       </c>
       <c r="G3" t="n">
         <v>7396.1</v>
       </c>
       <c r="H3" t="n">
-        <v>6150.654</v>
+        <v>6089.210000000001</v>
       </c>
     </row>
     <row r="4">
@@ -2747,22 +2411,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.81</v>
+        <v>12.96</v>
       </c>
       <c r="D6" t="n">
-        <v>4.81</v>
+        <v>12.96</v>
       </c>
       <c r="E6" t="n">
-        <v>4.81</v>
+        <v>12.96</v>
       </c>
       <c r="F6" t="n">
-        <v>4.81</v>
+        <v>12.96</v>
       </c>
       <c r="G6" t="n">
-        <v>4.81</v>
+        <v>12.96</v>
       </c>
       <c r="H6" t="n">
-        <v>4.81</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="7">
@@ -2978,7 +2642,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>PARegressor</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2987,28 +2651,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.3</v>
+        <v>3.46</v>
       </c>
       <c r="D14" t="n">
-        <v>2.3</v>
+        <v>3.46</v>
       </c>
       <c r="E14" t="n">
-        <v>2.3</v>
+        <v>3.46</v>
       </c>
       <c r="F14" t="n">
-        <v>2.3</v>
+        <v>3.46</v>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>3.46</v>
       </c>
       <c r="H14" t="n">
-        <v>2.3</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PARegressor</t>
+          <t>KNNRegressor</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3017,28 +2681,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.46</v>
+        <v>17.01</v>
       </c>
       <c r="D15" t="n">
-        <v>3.46</v>
+        <v>17.01</v>
       </c>
       <c r="E15" t="n">
-        <v>3.46</v>
+        <v>17.01</v>
       </c>
       <c r="F15" t="n">
-        <v>3.46</v>
+        <v>17.01</v>
       </c>
       <c r="G15" t="n">
-        <v>3.46</v>
+        <v>17.01</v>
       </c>
       <c r="H15" t="n">
-        <v>3.46</v>
+        <v>17.01</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Perceptron</t>
+          <t>SKL2RiverRegressor</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3047,111 +2711,21 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.24</v>
+        <v>4.73</v>
       </c>
       <c r="D16" t="n">
-        <v>2.24</v>
+        <v>4.73</v>
       </c>
       <c r="E16" t="n">
-        <v>2.24</v>
+        <v>4.73</v>
       </c>
       <c r="F16" t="n">
-        <v>2.24</v>
+        <v>4.73</v>
       </c>
       <c r="G16" t="n">
-        <v>2.24</v>
+        <v>4.73</v>
       </c>
       <c r="H16" t="n">
-        <v>2.24</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>SoftmaxRegression</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Tamanho do Modelo (KB)</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>26118.34</v>
-      </c>
-      <c r="D17" t="n">
-        <v>26118.34</v>
-      </c>
-      <c r="E17" t="n">
-        <v>25292.59</v>
-      </c>
-      <c r="F17" t="n">
-        <v>26118.34</v>
-      </c>
-      <c r="G17" t="n">
-        <v>24785.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>25686.542</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>KNNRegressor</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Tamanho do Modelo (KB)</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="D18" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="E18" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="F18" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="G18" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="H18" t="n">
-        <v>17.01</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>SKL2RiverRegressor</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Tamanho do Modelo (KB)</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="F19" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="H19" t="n">
         <v>4.73</v>
       </c>
     </row>
